--- a/biology/Botanique/Drave_des_Pyrénées/Drave_des_Pyrénées.xlsx
+++ b/biology/Botanique/Drave_des_Pyrénées/Drave_des_Pyrénées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Drave_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Drave_des_Pyrénées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petrocallis pyrenaica
 La Drave des Pyrénées ou Pétrocalle des Pyrénées (Petrocallis pyrenaica) est une espèce de plantes vivaces herbacée de montagne de la famille des Brassicacées et du genre Petrocallis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Drave_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Drave_des_Pyrénées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante herbacée de 2 à 8 cm de haut, poussant en coussinets lâches, possédant des tiges aphylles couronnées de fleurs à leur extrémité. Les feuilles sont toutes disposées en rosette à la base de la tige. Cunéiformes et pouvant atteindre 8 mm de long, elles sont divisées en 3 à 5 lobes à leur extrémité. Le rhizome, renflé et rampant, développant les feuilles à son extrémité, pénètre souvent dans les fissures des rochers et les élargit[1].
-Appareil reproducteur
-Les fleurs, parfumées, peuvent être de couleur rose, lilas ou violet clair. Elles sont composées de quatre pétales et sépales ovales et peuvent atteindre 1 cm de diamètre. La floraison a lieu de juin à juillet[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée de 2 à 8 cm de haut, poussant en coussinets lâches, possédant des tiges aphylles couronnées de fleurs à leur extrémité. Les feuilles sont toutes disposées en rosette à la base de la tige. Cunéiformes et pouvant atteindre 8 mm de long, elles sont divisées en 3 à 5 lobes à leur extrémité. Le rhizome, renflé et rampant, développant les feuilles à son extrémité, pénètre souvent dans les fissures des rochers et les élargit.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Drave_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Drave_des_Pyrénées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une plante rare qui pousse dans les fissures et éboulis de rochers, parmi les groupements pionniers des pelouses, sur sols calcaires, de 1 500 à plus de 3 000 m d'altitude[1].
-Elle est classé comme étant de « préoccupation mineure » (LC) sur la Liste rouge de la flore vasculaire de France métropolitaine (2019)[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, parfumées, peuvent être de couleur rose, lilas ou violet clair. Elles sont composées de quatre pétales et sépales ovales et peuvent atteindre 1 cm de diamètre. La floraison a lieu de juin à juillet.
 </t>
         </is>
       </c>
@@ -560,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Drave_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Drave_des_Pyrénées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +595,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les Alpes, les Pyrénées et les Carpates[1].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante rare qui pousse dans les fissures et éboulis de rochers, parmi les groupements pionniers des pelouses, sur sols calcaires, de 1 500 à plus de 3 000 m d'altitude.
+Elle est classé comme étant de « préoccupation mineure » (LC) sur la Liste rouge de la flore vasculaire de France métropolitaine (2019).
 </t>
         </is>
       </c>
@@ -591,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Drave_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Drave_des_Pyrénées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +629,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les Alpes, les Pyrénées et les Carpates.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Drave_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Drave_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Crucifera petrocallis E.H.L.Krause, 1902
 Draba pyrenaica L., 1753
